--- a/biology/Botanique/Berberidopsidaceae/Berberidopsidaceae.xlsx
+++ b/biology/Botanique/Berberidopsidaceae/Berberidopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Berberidopsidaceae est une petite famille de plantes dicotylédones.
 Ce sont des plantes grimpantes à feuillage persistant originaires du Chili et d'Australie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Berberidopsis, formé de Berberis et du suffixe grec -ὄψις / -ópsis, « aspect, ressemblant à », en référence à la ressemblance des feuilles de cette plante avec le Berberis (Berberidaceae).
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille n'existe pas ; ces plantes étaient placées dans les Flacourtiacées.
-Pour la classification phylogénétique APG II (2003)[2] elle comprend 3 espèces en 2 genres: Berberidopsis (en) et Streptothamnus (en). Cette famille est directement rattachée au noyau des Dicotylédones vraies.
-Le Angiosperm Phylogeny Website situe cette famille dans le nouvel ordre des Berberidopsis (en), avec les Aextoxicaceae, choix qui a été confirmée par la classification phylogénétique APG III (2009)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas ; ces plantes étaient placées dans les Flacourtiacées.
+Pour la classification phylogénétique APG II (2003) elle comprend 3 espèces en 2 genres: Berberidopsis (en) et Streptothamnus (en). Cette famille est directement rattachée au noyau des Dicotylédones vraies.
+Le Angiosperm Phylogeny Website situe cette famille dans le nouvel ordre des Berberidopsis (en), avec les Aextoxicaceae, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) :
 genre Berberidopsis (en)
-Selon Angiosperm Phylogeny Website                        (28 avr. 2010)[5] et GRIN            (28 avr. 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (28 avr. 2010) et GRIN            (28 avr. 2010) :
 genre Berberidopsis (en)
 genre Streptothamnus (en)</t>
         </is>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) :
 genre Berberidopsis (en)
 Berberidopsis beckleri
 Berberidopsis corallina</t>
